--- a/Kindle/064/証拠資料の目録.xlsx
+++ b/Kindle/064/証拠資料の目録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a66/Dropbox/Mac/Documents/kk2023part2/git/kk2023_07/Kindle/064/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a66/Dropbox/Mac/Documents/kk2023part3/kk2023_07/Kindle/064/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA24850-FE1A-684C-922D-59A1B34E389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C85F0-1C58-0541-8628-931259EC8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{94C0735A-C98B-CD4D-BA5D-843BD4E31D57}"/>
+    <workbookView xWindow="13000" yWindow="0" windowWidth="12600" windowHeight="16000" xr2:uid="{94C0735A-C98B-CD4D-BA5D-843BD4E31D57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="165">
   <si>
     <t>1/4の1</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平成04年10月05日付　控訴趣意書　被告人廣野秀樹作成　名古屋高裁金沢支部御中　46頁（手書き）</t>
   </si>
   <si>
     <t>印刷サイズの違い</t>
@@ -1823,34 +1820,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>甲第六三号証　供述調書　池台宏美　平成4年4月10日　金沢西警察署　司法警察員巡査　橋本登志彦</t>
-    <rPh sb="0" eb="6">
-      <t xml:space="preserve">コウダイ63ゴウショウ </t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>キョウジュ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">イケダイ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">ヒロミ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">ヘイセイ4ネン4ガツ10ニチ </t>
-    </rPh>
-    <rPh sb="27" eb="33">
-      <t xml:space="preserve">ニシショ </t>
-    </rPh>
-    <rPh sb="34" eb="41">
-      <t>シホウ</t>
-    </rPh>
-    <rPh sb="42" eb="47">
-      <t>ハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>甲第六五号証　供述調書　多田敏明　平成4年4月11日　金沢西警察署　警部補　村元康夫</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">コウダイ65ゴウショウ </t>
@@ -2205,6 +2174,237 @@
     <rPh sb="50" eb="51">
       <t xml:space="preserve">アイダ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平成04年10月05日付　控訴趣意書　被告人廣野秀樹作成　名古屋高裁金沢支部御中　46頁（手書き）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>035</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>039</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>055</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>057</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>066</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>096</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>127</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>133</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲第六三号証　供述調書　池田宏美　平成4年4月10日　金沢西警察署　司法警察員巡査　橋本登志彦</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">コウダイ63ゴウショウ </t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キョウジュ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">イケダイ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">タンボ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヒロミ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヘイセイ4ネン4ガツ10ニチ </t>
+    </rPh>
+    <rPh sb="27" eb="33">
+      <t xml:space="preserve">ニシショ </t>
+    </rPh>
+    <rPh sb="34" eb="41">
+      <t>シホウ</t>
+    </rPh>
+    <rPh sb="42" eb="47">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>027</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>029</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2260,7 +2460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2268,6 +2468,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2584,1383 +2787,1579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5F257-EBB8-5A4B-8F3B-CA5BAF13FC54}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="109.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="109.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" t="s">
         <v>77</v>
       </c>
-      <c r="C77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
-      </c>
-      <c r="C106" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D113" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D114" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C116" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D117" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C119" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C120" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C121" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C122" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C124" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D124" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
